--- a/Excel/镇魂街/技能/skill.xlsx
+++ b/Excel/镇魂街/技能/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\技能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EDD646-7432-4D69-AB0B-4B03519EC562}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB5842-3DDC-4A38-86E7-821A924144FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,10 +1318,10 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="L68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R81" sqref="R81"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>

--- a/Excel/镇魂街/技能/skill.xlsx
+++ b/Excel/镇魂街/技能/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\技能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB5842-3DDC-4A38-86E7-821A924144FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042AEA0-2283-4F70-8CA9-EA86D004D592}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="286">
   <si>
     <t>标识</t>
   </si>
@@ -879,6 +879,22 @@
   </si>
   <si>
     <t>icon_1304018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀鬼兵的普通攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的普通攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1315,13 +1331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5550,6 +5566,174 @@
         <v>1</v>
       </c>
       <c r="S77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="11">
+        <v>1306001</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="12">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78" s="12" t="str">
+        <f t="shared" ref="H78" si="22">B78&amp;"01#1,"&amp;B78&amp;"01#2,"&amp;B78&amp;"01#3,"&amp;B78&amp;"01#4,"&amp;B78&amp;"01#5"</f>
+        <v>130600101#1,130600101#2,130600101#3,130600101#4,130600101#5</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13">
+        <v>2</v>
+      </c>
+      <c r="K78" s="13">
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <v>1</v>
+      </c>
+      <c r="M78" s="12">
+        <v>5</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q78" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="R78" s="12">
+        <v>1</v>
+      </c>
+      <c r="S78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="11">
+        <v>1306002</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" s="12">
+        <v>1</v>
+      </c>
+      <c r="F79" s="12">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12" t="str">
+        <f t="shared" ref="H79:H80" si="23">B79&amp;"01#1,"&amp;B79&amp;"01#2,"&amp;B79&amp;"01#3,"&amp;B79&amp;"01#4,"&amp;B79&amp;"01#5"</f>
+        <v>130600201#1,130600201#2,130600201#3,130600201#4,130600201#5</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13">
+        <v>2</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12">
+        <v>1</v>
+      </c>
+      <c r="M79" s="12">
+        <v>5</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q79" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="R79" s="12">
+        <v>1</v>
+      </c>
+      <c r="S79" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="11">
+        <v>1306003</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" s="12">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0</v>
+      </c>
+      <c r="H80" s="12" t="str">
+        <f t="shared" si="23"/>
+        <v>130600301#1,130600301#2,130600301#3,130600301#4,130600301#5</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13">
+        <v>2</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
+        <v>1</v>
+      </c>
+      <c r="M80" s="12">
+        <v>5</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q80" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="R80" s="12">
+        <v>1</v>
+      </c>
+      <c r="S80" s="12">
         <v>1</v>
       </c>
     </row>
